--- a/biology/Médecine/Hexachlorophène/Hexachlorophène.xlsx
+++ b/biology/Médecine/Hexachlorophène/Hexachlorophène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hexachloroph%C3%A8ne</t>
+          <t>Hexachlorophène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hexachlorophène est un puissant bactéricide créé par la société Givaudan.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hexachloroph%C3%A8ne</t>
+          <t>Hexachlorophène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son utilisation dans le talc pour bébés fut longtemps considérée comme bénigne jusqu'à l'éclatement de l'affaire du talc Morhange. En 1971, une affaire semblable avait déjà eu lieu aux États-Unis où l'hexachlorophène était utilisé depuis des années comme désinfectant en solution à 3 % pour la toilette des nourrissons.
-L'étude de la toxicité de ce produit a été réduite à sa plus simple expression, et semble n'avoir jamais été complètement publiée[7]. Elle semble s'être limitée à incorporer le produit à l'alimentation d'une dizaine de cochons d'Inde. Tous sont morts dans les trois premiers jours de l'expérimentation. En 1939, pressés par le temps, les laboratoires ont gardé confidentiels ces résultats inquiétants.
+L'étude de la toxicité de ce produit a été réduite à sa plus simple expression, et semble n'avoir jamais été complètement publiée. Elle semble s'être limitée à incorporer le produit à l'alimentation d'une dizaine de cochons d'Inde. Tous sont morts dans les trois premiers jours de l'expérimentation. En 1939, pressés par le temps, les laboratoires ont gardé confidentiels ces résultats inquiétants.
 À cette époque, aucun contrôle n'était imposé sur les produits cosmétiques.
-L'hexachlorophène était aussi présent dans les rayures rouges du dentifrice Signal[8], dont la publicité était « Ses rayures rouges contiennent de l'hexachlorophène pour nettoyer et protéger les dents ». À la suite de l'affaire du talc Morhange, ce slogan a disparu.
+L'hexachlorophène était aussi présent dans les rayures rouges du dentifrice Signal, dont la publicité était « Ses rayures rouges contiennent de l'hexachlorophène pour nettoyer et protéger les dents ». À la suite de l'affaire du talc Morhange, ce slogan a disparu.
 L'hexachlorophène apportait à ses producteurs le double avantage d'être vendu en tant que produit cosmétique plus dispendieux et d'être vendu en tant que médicament.
 L'hexachlorophène a longtemps été commercialisé industriellement sous le nom de « G11 ».
 Son administration médicamenteuse est contre-indiquée chez les enfant en raison de ses effets indésirables neurologique.
